--- a/Solution/PptGeneratorGUI/SourceFiles/DataSource.xlsx
+++ b/Solution/PptGeneratorGUI/SourceFiles/DataSource.xlsx
@@ -17,7 +17,7 @@
     <sheet name="RunRate" sheetId="5" r:id="rId3"/>
     <sheet name="Superdettagli" sheetId="1" r:id="rId4"/>
     <sheet name="Alias-Business TMP" sheetId="30" r:id="rId5"/>
-    <sheet name="Alias-Categoria " sheetId="31" r:id="rId6"/>
+    <sheet name="Alias-Categoria" sheetId="31" r:id="rId6"/>
     <sheet name="table_tabProjType" sheetId="8" r:id="rId7"/>
     <sheet name="table_tabProjTypeCluster" sheetId="9" r:id="rId8"/>
     <sheet name="table_CommonTable" sheetId="10" r:id="rId9"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="272">
   <si>
     <t>da considerare?_</t>
   </si>
@@ -898,6 +898,18 @@
   <si>
     <t>Alias for the column
 Business TMP</t>
+  </si>
+  <si>
+    <t>Add instructions here</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>fdas</t>
+  </si>
+  <si>
+    <t>da</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1044,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1196,6 +1208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1983,7 +2001,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2148,6 +2166,7 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4759,8 +4778,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="412380504"/>
-        <c:axId val="412377760"/>
+        <c:axId val="392381880"/>
+        <c:axId val="392378352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5060,11 +5079,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="412380504"/>
-        <c:axId val="412377760"/>
+        <c:axId val="392381880"/>
+        <c:axId val="392378352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="412380504"/>
+        <c:axId val="392381880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5107,7 +5126,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412377760"/>
+        <c:crossAx val="392378352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5115,7 +5134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="412377760"/>
+        <c:axId val="392378352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5167,7 +5186,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412380504"/>
+        <c:crossAx val="392381880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6977,29 +6996,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="115" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
@@ -10108,35 +10127,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
       <c r="G1" s="86"/>
       <c r="H1" s="86"/>
       <c r="I1" s="86"/>
       <c r="J1" s="86"/>
-      <c r="K1" s="125" t="s">
+      <c r="K1" s="126" t="s">
         <v>206</v>
       </c>
-      <c r="L1" s="125"/>
+      <c r="L1" s="126"/>
       <c r="M1" s="86"/>
       <c r="N1" s="86"/>
       <c r="O1" s="86"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -10920,10 +10939,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -11449,10 +11468,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -11812,30 +11831,30 @@
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" s="59"/>
-      <c r="D22" s="127">
+      <c r="D22" s="128">
         <v>2023</v>
       </c>
-      <c r="E22" s="128"/>
-      <c r="F22" s="127">
+      <c r="E22" s="129"/>
+      <c r="F22" s="128">
         <v>2024</v>
       </c>
-      <c r="G22" s="128"/>
-      <c r="H22" s="131">
+      <c r="G22" s="129"/>
+      <c r="H22" s="132">
         <v>2025</v>
       </c>
-      <c r="I22" s="132"/>
-      <c r="J22" s="133">
+      <c r="I22" s="133"/>
+      <c r="J22" s="134">
         <v>2025</v>
       </c>
-      <c r="K22" s="134"/>
-      <c r="L22" s="127">
+      <c r="K22" s="135"/>
+      <c r="L22" s="128">
         <v>2025</v>
       </c>
-      <c r="M22" s="128"/>
-      <c r="N22" s="129" t="s">
+      <c r="M22" s="129"/>
+      <c r="N22" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="O22" s="130"/>
+      <c r="O22" s="131"/>
       <c r="P22" s="61"/>
     </row>
     <row r="23" spans="3:16" ht="30" x14ac:dyDescent="0.25">
@@ -12618,10 +12637,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -13146,10 +13165,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -13674,10 +13693,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -14202,10 +14221,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -14730,10 +14749,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -15258,10 +15277,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -15814,34 +15833,34 @@
       <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="113" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="117" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="118" t="s">
         <v>225</v>
       </c>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="119"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="89" t="s">
@@ -16115,10 +16134,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -16643,10 +16662,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -17171,10 +17190,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -17699,10 +17718,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -18227,10 +18246,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -18755,10 +18774,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -19283,10 +19302,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -19811,10 +19830,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -20339,10 +20358,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -20867,10 +20886,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
@@ -21575,100 +21594,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="119" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="AF1" s="120"/>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="120"/>
-      <c r="AI1" s="120"/>
-      <c r="AJ1" s="120"/>
-      <c r="AK1" s="120"/>
-      <c r="AL1" s="120"/>
-      <c r="AM1" s="120"/>
-      <c r="AN1" s="120"/>
-      <c r="AO1" s="120"/>
-      <c r="AP1" s="120"/>
-      <c r="AQ1" s="120"/>
-      <c r="AR1" s="120"/>
-      <c r="AS1" s="120"/>
-      <c r="AT1" s="120"/>
-      <c r="AU1" s="120"/>
-      <c r="AV1" s="120"/>
-      <c r="AW1" s="120"/>
-      <c r="AX1" s="120"/>
-      <c r="AY1" s="120"/>
-      <c r="AZ1" s="120"/>
-      <c r="BA1" s="120"/>
-      <c r="BB1" s="120"/>
-      <c r="BC1" s="120"/>
-      <c r="BD1" s="120"/>
-      <c r="BE1" s="120"/>
-      <c r="BF1" s="120"/>
-      <c r="BG1" s="120"/>
-      <c r="BH1" s="120"/>
-      <c r="BI1" s="120"/>
-      <c r="BJ1" s="120"/>
-      <c r="BK1" s="120"/>
-      <c r="BL1" s="120"/>
-      <c r="BM1" s="120"/>
-      <c r="BN1" s="120"/>
-      <c r="BO1" s="120"/>
-      <c r="BP1" s="120"/>
-      <c r="BQ1" s="120"/>
-      <c r="BR1" s="120"/>
-      <c r="BS1" s="120"/>
-      <c r="BT1" s="120"/>
-      <c r="BU1" s="120"/>
-      <c r="BV1" s="120"/>
-      <c r="BW1" s="120"/>
-      <c r="BX1" s="120"/>
-      <c r="BY1" s="120"/>
-      <c r="BZ1" s="120"/>
-      <c r="CA1" s="120"/>
-      <c r="CB1" s="120"/>
-      <c r="CC1" s="120"/>
-      <c r="CD1" s="120"/>
-      <c r="CE1" s="120"/>
-      <c r="CF1" s="120"/>
-      <c r="CG1" s="120"/>
-      <c r="CH1" s="120"/>
-      <c r="CI1" s="120"/>
-      <c r="CJ1" s="120"/>
-      <c r="CK1" s="120"/>
-      <c r="CL1" s="121"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="121"/>
+      <c r="AH1" s="121"/>
+      <c r="AI1" s="121"/>
+      <c r="AJ1" s="121"/>
+      <c r="AK1" s="121"/>
+      <c r="AL1" s="121"/>
+      <c r="AM1" s="121"/>
+      <c r="AN1" s="121"/>
+      <c r="AO1" s="121"/>
+      <c r="AP1" s="121"/>
+      <c r="AQ1" s="121"/>
+      <c r="AR1" s="121"/>
+      <c r="AS1" s="121"/>
+      <c r="AT1" s="121"/>
+      <c r="AU1" s="121"/>
+      <c r="AV1" s="121"/>
+      <c r="AW1" s="121"/>
+      <c r="AX1" s="121"/>
+      <c r="AY1" s="121"/>
+      <c r="AZ1" s="121"/>
+      <c r="BA1" s="121"/>
+      <c r="BB1" s="121"/>
+      <c r="BC1" s="121"/>
+      <c r="BD1" s="121"/>
+      <c r="BE1" s="121"/>
+      <c r="BF1" s="121"/>
+      <c r="BG1" s="121"/>
+      <c r="BH1" s="121"/>
+      <c r="BI1" s="121"/>
+      <c r="BJ1" s="121"/>
+      <c r="BK1" s="121"/>
+      <c r="BL1" s="121"/>
+      <c r="BM1" s="121"/>
+      <c r="BN1" s="121"/>
+      <c r="BO1" s="121"/>
+      <c r="BP1" s="121"/>
+      <c r="BQ1" s="121"/>
+      <c r="BR1" s="121"/>
+      <c r="BS1" s="121"/>
+      <c r="BT1" s="121"/>
+      <c r="BU1" s="121"/>
+      <c r="BV1" s="121"/>
+      <c r="BW1" s="121"/>
+      <c r="BX1" s="121"/>
+      <c r="BY1" s="121"/>
+      <c r="BZ1" s="121"/>
+      <c r="CA1" s="121"/>
+      <c r="CB1" s="121"/>
+      <c r="CC1" s="121"/>
+      <c r="CD1" s="121"/>
+      <c r="CE1" s="121"/>
+      <c r="CF1" s="121"/>
+      <c r="CG1" s="121"/>
+      <c r="CH1" s="121"/>
+      <c r="CI1" s="121"/>
+      <c r="CJ1" s="121"/>
+      <c r="CK1" s="121"/>
+      <c r="CL1" s="122"/>
     </row>
     <row r="2" spans="1:90" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
@@ -22419,32 +22438,36 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="123" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="123"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="124"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="110" t="s">
         <v>265</v>
       </c>
       <c r="B2" s="111" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="112" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="108" t="s">
         <v>254</v>
       </c>
@@ -22452,7 +22475,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
         <v>256</v>
       </c>
@@ -22460,51 +22483,59 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="104"/>
-      <c r="B5" s="105"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
+      <c r="B5" s="105" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="104" t="s">
+        <v>269</v>
+      </c>
       <c r="B6" s="105"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="105"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="104" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="105" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="104"/>
       <c r="B8" s="105"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="104"/>
       <c r="B9" s="105"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="104"/>
       <c r="B10" s="105"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="104"/>
       <c r="B11" s="105"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="104"/>
       <c r="B12" s="105"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="104"/>
       <c r="B13" s="105"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="104"/>
       <c r="B14" s="105"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="104"/>
       <c r="B15" s="105"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="104"/>
       <c r="B16" s="105"/>
     </row>
@@ -22539,32 +22570,36 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="123" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="123"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="124"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="110" t="s">
         <v>265</v>
       </c>
       <c r="B2" s="111" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="112" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="104" t="s">
         <v>258</v>
       </c>
@@ -22572,7 +22607,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
         <v>260</v>
       </c>
@@ -22580,7 +22615,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
         <v>262</v>
       </c>
@@ -22588,47 +22623,47 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="104"/>
       <c r="B6" s="105"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="104"/>
       <c r="B7" s="105"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="104"/>
       <c r="B8" s="105"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="104"/>
       <c r="B9" s="105"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="104"/>
       <c r="B10" s="105"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="104"/>
       <c r="B11" s="105"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="104"/>
       <c r="B12" s="105"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="104"/>
       <c r="B13" s="105"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="104"/>
       <c r="B14" s="105"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="104"/>
       <c r="B15" s="105"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="104"/>
       <c r="B16" s="105"/>
     </row>

--- a/Solution/PptGeneratorGUI/SourceFiles/DataSource.xlsx
+++ b/Solution/PptGeneratorGUI/SourceFiles/DataSource.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16215" tabRatio="774" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16215" tabRatio="774" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="table_tabProjTypeCluster" sheetId="9" r:id="rId6"/>
     <sheet name="table_CommonTable" sheetId="10" r:id="rId7"/>
     <sheet name="table_tabProgettiD" sheetId="11" r:id="rId8"/>
-    <sheet name="Powerpoint Configuration" sheetId="7" r:id="rId9"/>
+    <sheet name="Powerpoint Configuration" sheetId="32" r:id="rId9"/>
     <sheet name="Alias-Business TMP" sheetId="30" r:id="rId10"/>
     <sheet name="Alias-Categoria" sheetId="31" r:id="rId11"/>
     <sheet name="PP_Template" sheetId="12" r:id="rId12"/>
@@ -931,7 +931,7 @@
     <numFmt numFmtId="166" formatCode="&quot;RR&quot;\ 0"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -978,12 +978,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2023,10 +2017,10 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2108,16 +2102,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2125,7 +2119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2218,19 +2212,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2248,10 +2242,10 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2734,7 +2728,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3038,7 +3031,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3219,7 +3211,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3611,7 +3602,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3794,7 +3784,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3977,7 +3966,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4160,7 +4148,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4343,7 +4330,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4527,7 +4513,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4711,7 +4696,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4839,8 +4823,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="166125680"/>
-        <c:axId val="388007984"/>
+        <c:axId val="445742040"/>
+        <c:axId val="445744392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5140,11 +5124,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="166125680"/>
-        <c:axId val="388007984"/>
+        <c:axId val="445742040"/>
+        <c:axId val="445744392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166125680"/>
+        <c:axId val="445742040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5187,7 +5171,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388007984"/>
+        <c:crossAx val="445744392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5195,7 +5179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="388007984"/>
+        <c:axId val="445744392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5247,7 +5231,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166125680"/>
+        <c:crossAx val="445742040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5863,7 +5847,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Microsoft, Powerpoint, macOS, BigSur Icon">
+        <xdr:cNvPr id="2" name="Picture 1" descr="Microsoft, Powerpoint, macOS, BigSur Icon">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B7A9E05-B8F7-4BC2-BFE2-F54370A914CF}"/>
@@ -5890,7 +5874,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1624853" y="123264"/>
-          <a:ext cx="315209" cy="325990"/>
+          <a:ext cx="315209" cy="323189"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5924,7 +5908,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="Group 12">
+        <xdr:cNvPr id="3" name="Group 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF94E72-2189-C812-DFB0-EBA7303C26E4}"/>
@@ -5943,7 +5927,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Rectangle 13">
+          <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779F3758-FC90-FB6E-BDC0-425401461C6E}"/>
@@ -5991,7 +5975,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="TextBox 14">
+          <xdr:cNvPr id="5" name="TextBox 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC341FA-E3C4-9953-A60A-C981007A1A73}"/>
@@ -6039,7 +6023,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="TextBox 17">
+          <xdr:cNvPr id="6" name="TextBox 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2460A70B-F49C-4E04-8DEA-27528896E193}"/>
@@ -6103,7 +6087,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Connector 18">
+        <xdr:cNvPr id="7" name="Straight Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0625142-E4C3-F93B-2C3B-AAF9BD9CF716}"/>
@@ -6111,13 +6095,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="0"/>
-          <a:endCxn id="14" idx="2"/>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="4" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9092294" y="962026"/>
+          <a:off x="9339944" y="962026"/>
           <a:ext cx="0" cy="741588"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6161,7 +6145,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="Group 19">
+        <xdr:cNvPr id="8" name="Group 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F9AF7C-0A4B-6822-9A27-7404CF0E5234}"/>
@@ -6180,7 +6164,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="Rectangle 20">
+          <xdr:cNvPr id="9" name="Rectangle 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F527A74-90BA-458A-B1F8-44B126386B8D}"/>
@@ -6228,7 +6212,7 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="22" name="Straight Connector 21">
+          <xdr:cNvPr id="10" name="Straight Connector 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847FA15F-E5D8-45E4-AC10-C4738F881B14}"/>
@@ -6236,8 +6220,8 @@
             </a:extLst>
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
-            <a:stCxn id="21" idx="2"/>
-            <a:endCxn id="21" idx="0"/>
+            <a:stCxn id="9" idx="2"/>
+            <a:endCxn id="9" idx="0"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -6271,7 +6255,7 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="TextBox 22">
+          <xdr:cNvPr id="11" name="TextBox 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F87CCC-A74E-4C5D-92A0-3B846F62BD21}"/>
@@ -6319,7 +6303,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="TextBox 29">
+          <xdr:cNvPr id="12" name="TextBox 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5BC8B3-946C-45E9-A60C-689F4FF5C554}"/>
@@ -6463,7 +6447,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="tblFieldFilters12" displayName="tblFieldFilters12" ref="K3:L15" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="tblFieldFilters1213" displayName="tblFieldFilters1213" ref="K3:L15" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="K3:L15"/>
   <tableColumns count="2">
     <tableColumn id="3" name="TABLE"/>
@@ -6751,7 +6735,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tblIndexPowerpoint" displayName="tblIndexPowerpoint" ref="A3:F90" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="tblIndexPowerpoint7" displayName="tblIndexPowerpoint7" ref="A3:F90" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A3:F90"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Powerpoint File"/>
@@ -8042,7 +8026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -41111,8 +41095,8 @@
   </sheetPr>
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42521,13 +42505,12 @@
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="K1:L2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F90 F4:F14">
+      <formula1>"Horizontal,Vertical"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K15">
       <formula1>"SUPERDETTAGLI,BUDGET,FORECAST,RUNRATE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F14 F18:F90">
-      <formula1>"Horizontal,Vertical"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Solution/PptGeneratorGUI/SourceFiles/DataSource.xlsx
+++ b/Solution/PptGeneratorGUI/SourceFiles/DataSource.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16215" tabRatio="774" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16215" tabRatio="774" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="3" r:id="rId1"/>
@@ -4854,8 +4854,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="171245216"/>
-        <c:axId val="171248352"/>
+        <c:axId val="170469072"/>
+        <c:axId val="397682944"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5155,11 +5155,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="171245216"/>
-        <c:axId val="171248352"/>
+        <c:axId val="170469072"/>
+        <c:axId val="397682944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171245216"/>
+        <c:axId val="170469072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5202,7 +5202,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171248352"/>
+        <c:crossAx val="397682944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5210,7 +5210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171248352"/>
+        <c:axId val="397682944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5262,7 +5262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171245216"/>
+        <c:crossAx val="170469072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5881,7 +5881,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Microsoft, Powerpoint, macOS, BigSur Icon">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B7A9E05-B8F7-4BC2-BFE2-F54370A914CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B7A9E05-B8F7-4BC2-BFE2-F54370A914CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5942,7 +5942,7 @@
         <xdr:cNvPr id="3" name="Group 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF94E72-2189-C812-DFB0-EBA7303C26E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EF94E72-2189-C812-DFB0-EBA7303C26E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5961,7 +5961,7 @@
           <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779F3758-FC90-FB6E-BDC0-425401461C6E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{779F3758-FC90-FB6E-BDC0-425401461C6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6009,7 +6009,7 @@
           <xdr:cNvPr id="5" name="TextBox 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC341FA-E3C4-9953-A60A-C981007A1A73}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CC341FA-E3C4-9953-A60A-C981007A1A73}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6057,7 +6057,7 @@
           <xdr:cNvPr id="6" name="TextBox 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2460A70B-F49C-4E04-8DEA-27528896E193}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2460A70B-F49C-4E04-8DEA-27528896E193}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6121,7 +6121,7 @@
         <xdr:cNvPr id="7" name="Straight Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0625142-E4C3-F93B-2C3B-AAF9BD9CF716}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0625142-E4C3-F93B-2C3B-AAF9BD9CF716}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6179,7 +6179,7 @@
         <xdr:cNvPr id="8" name="Group 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F9AF7C-0A4B-6822-9A27-7404CF0E5234}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9F9AF7C-0A4B-6822-9A27-7404CF0E5234}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6198,7 +6198,7 @@
           <xdr:cNvPr id="9" name="Rectangle 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F527A74-90BA-458A-B1F8-44B126386B8D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F527A74-90BA-458A-B1F8-44B126386B8D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6246,7 +6246,7 @@
           <xdr:cNvPr id="10" name="Straight Connector 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847FA15F-E5D8-45E4-AC10-C4738F881B14}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{847FA15F-E5D8-45E4-AC10-C4738F881B14}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6289,7 +6289,7 @@
           <xdr:cNvPr id="11" name="TextBox 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F87CCC-A74E-4C5D-92A0-3B846F62BD21}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33F87CCC-A74E-4C5D-92A0-3B846F62BD21}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6337,7 +6337,7 @@
           <xdr:cNvPr id="12" name="TextBox 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5BC8B3-946C-45E9-A60C-689F4FF5C554}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD5BC8B3-946C-45E9-A60C-689F4FF5C554}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6406,7 +6406,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C804A60B-3C35-EF36-6989-D524872A57EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C804A60B-3C35-EF36-6989-D524872A57EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7049,7 +7049,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36216,7 +36216,7 @@
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -36311,8 +36311,8 @@
   </sheetPr>
   <dimension ref="A1:CL6"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41126,8 +41126,8 @@
   </sheetPr>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Solution/PptGeneratorGUI/SourceFiles/DataSource.xlsx
+++ b/Solution/PptGeneratorGUI/SourceFiles/DataSource.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16215" tabRatio="774" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="16215" tabRatio="774" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="3" r:id="rId1"/>
@@ -4854,8 +4854,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="100"/>
-        <c:axId val="170469072"/>
-        <c:axId val="397682944"/>
+        <c:axId val="391065040"/>
+        <c:axId val="391064648"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5155,11 +5155,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170469072"/>
-        <c:axId val="397682944"/>
+        <c:axId val="391065040"/>
+        <c:axId val="391064648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170469072"/>
+        <c:axId val="391065040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5202,7 +5202,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397682944"/>
+        <c:crossAx val="391064648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5210,7 +5210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="397682944"/>
+        <c:axId val="391064648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5262,7 +5262,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170469072"/>
+        <c:crossAx val="391065040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5881,7 +5881,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Microsoft, Powerpoint, macOS, BigSur Icon">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B7A9E05-B8F7-4BC2-BFE2-F54370A914CF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B7A9E05-B8F7-4BC2-BFE2-F54370A914CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5942,7 +5942,7 @@
         <xdr:cNvPr id="3" name="Group 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EF94E72-2189-C812-DFB0-EBA7303C26E4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF94E72-2189-C812-DFB0-EBA7303C26E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5961,7 +5961,7 @@
           <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{779F3758-FC90-FB6E-BDC0-425401461C6E}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779F3758-FC90-FB6E-BDC0-425401461C6E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6009,7 +6009,7 @@
           <xdr:cNvPr id="5" name="TextBox 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CC341FA-E3C4-9953-A60A-C981007A1A73}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC341FA-E3C4-9953-A60A-C981007A1A73}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6057,7 +6057,7 @@
           <xdr:cNvPr id="6" name="TextBox 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2460A70B-F49C-4E04-8DEA-27528896E193}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2460A70B-F49C-4E04-8DEA-27528896E193}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6121,7 +6121,7 @@
         <xdr:cNvPr id="7" name="Straight Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0625142-E4C3-F93B-2C3B-AAF9BD9CF716}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0625142-E4C3-F93B-2C3B-AAF9BD9CF716}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6179,7 +6179,7 @@
         <xdr:cNvPr id="8" name="Group 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9F9AF7C-0A4B-6822-9A27-7404CF0E5234}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F9AF7C-0A4B-6822-9A27-7404CF0E5234}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6198,7 +6198,7 @@
           <xdr:cNvPr id="9" name="Rectangle 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F527A74-90BA-458A-B1F8-44B126386B8D}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F527A74-90BA-458A-B1F8-44B126386B8D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6246,7 +6246,7 @@
           <xdr:cNvPr id="10" name="Straight Connector 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{847FA15F-E5D8-45E4-AC10-C4738F881B14}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847FA15F-E5D8-45E4-AC10-C4738F881B14}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6289,7 +6289,7 @@
           <xdr:cNvPr id="11" name="TextBox 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33F87CCC-A74E-4C5D-92A0-3B846F62BD21}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F87CCC-A74E-4C5D-92A0-3B846F62BD21}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6337,7 +6337,7 @@
           <xdr:cNvPr id="12" name="TextBox 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD5BC8B3-946C-45E9-A60C-689F4FF5C554}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5BC8B3-946C-45E9-A60C-689F4FF5C554}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6406,7 +6406,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C804A60B-3C35-EF36-6989-D524872A57EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C804A60B-3C35-EF36-6989-D524872A57EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -36216,7 +36216,7 @@
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -36312,7 +36312,7 @@
   <dimension ref="A1:CL6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AD1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41126,7 +41126,7 @@
   </sheetPr>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>

--- a/Solution/PptGeneratorGUI/SourceFiles/DataSource.xlsx
+++ b/Solution/PptGeneratorGUI/SourceFiles/DataSource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\PptGeneratorGUI\SourceFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2845AFD4-28FB-4D57-880D-90C84AD60916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784311DD-D136-49BB-A739-29F4C314DF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="774" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="3" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="274">
   <si>
     <t>da considerare?_</t>
   </si>
@@ -818,36 +818,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>R&amp;D*</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
-    <t>pippo,pippo2,pippo3</t>
-  </si>
-  <si>
-    <t>pippo</t>
-  </si>
-  <si>
-    <t>abcd, abdc, bdca</t>
-  </si>
-  <si>
-    <t>ABCD</t>
-  </si>
-  <si>
-    <t>ef*</t>
-  </si>
-  <si>
-    <t>EF</t>
-  </si>
-  <si>
-    <t>lmn,lnm,mln,mnl,nlm,nml</t>
-  </si>
-  <si>
-    <t>LMN</t>
-  </si>
-  <si>
     <t>Alias for the column
 Categoria</t>
   </si>
@@ -860,15 +830,6 @@
   <si>
     <t>Alias for the column
 Business TMP</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>fdas</t>
-  </si>
-  <si>
-    <t>da</t>
   </si>
   <si>
     <t>Add instructions here to explain the usage of *</t>
@@ -908,6 +869,54 @@
   </si>
   <si>
     <t>Presentazione casi test 2.pptx</t>
+  </si>
+  <si>
+    <t>abcd*</t>
+  </si>
+  <si>
+    <t>Match caso 1</t>
+  </si>
+  <si>
+    <t>ef*gh</t>
+  </si>
+  <si>
+    <t>Match caso 2</t>
+  </si>
+  <si>
+    <t>*ilmn</t>
+  </si>
+  <si>
+    <t>Match caso 3</t>
+  </si>
+  <si>
+    <t>Pippo</t>
+  </si>
+  <si>
+    <t>Match caso 4</t>
+  </si>
+  <si>
+    <t>Match caso A</t>
+  </si>
+  <si>
+    <t>Match caso B</t>
+  </si>
+  <si>
+    <t>Match caso C</t>
+  </si>
+  <si>
+    <t>Match caso D</t>
+  </si>
+  <si>
+    <t>aaaa*</t>
+  </si>
+  <si>
+    <t>bb*bb</t>
+  </si>
+  <si>
+    <t>*cccc</t>
+  </si>
+  <si>
+    <t>Pluto</t>
   </si>
 </sst>
 </file>
@@ -7010,8 +7019,8 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="K2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7180,104 +7189,100 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="127" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B1" s="128"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="86" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" s="88" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
-        <v>241</v>
-      </c>
       <c r="B3" s="85" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="80" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="80" t="s">
+        <v>262</v>
+      </c>
       <c r="B5" s="81" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="80" t="s">
-        <v>255</v>
-      </c>
-      <c r="B6" s="81"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
-        <v>256</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="80"/>
       <c r="B8" s="81"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="80"/>
       <c r="B9" s="81"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="80"/>
       <c r="B10" s="81"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="80"/>
       <c r="B11" s="81"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="80"/>
       <c r="B12" s="81"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="80"/>
       <c r="B13" s="81"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="80"/>
       <c r="B14" s="81"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="80"/>
       <c r="B15" s="81"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="80"/>
       <c r="B16" s="81"/>
     </row>
@@ -7302,6 +7307,11 @@
       <c r="B21" s="83"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="88" t="s">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -7312,100 +7322,100 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="32.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="127" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B1" s="128"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="86" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>253</v>
-      </c>
-      <c r="D2" s="88" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
-        <v>245</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="80" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="80" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="80"/>
-      <c r="B6" s="81"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="80" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="80"/>
       <c r="B7" s="81"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="80"/>
       <c r="B8" s="81"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="80"/>
       <c r="B9" s="81"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="80"/>
       <c r="B10" s="81"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="80"/>
       <c r="B11" s="81"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="80"/>
       <c r="B12" s="81"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="80"/>
       <c r="B13" s="81"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="80"/>
       <c r="B14" s="81"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="80"/>
       <c r="B15" s="81"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="80"/>
       <c r="B16" s="81"/>
     </row>
@@ -7430,6 +7440,11 @@
       <c r="B21" s="83"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="88" t="s">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -7648,7 +7663,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C2" s="90"/>
     </row>
@@ -8504,7 +8519,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D2" s="88" t="str">
         <f>D1</f>
@@ -10163,7 +10178,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D2" s="110" t="str">
         <f>D1</f>
@@ -11822,7 +11837,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D2" s="111" t="str">
         <f>D1</f>
@@ -13481,7 +13496,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D2" s="112" t="str">
         <f>D1</f>
@@ -15140,7 +15155,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D2" s="113" t="str">
         <f>D1</f>
@@ -16799,7 +16814,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D2" s="110" t="str">
         <f>D1</f>
@@ -18701,7 +18716,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -20360,7 +20375,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -22019,7 +22034,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -23678,7 +23693,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -25337,7 +25352,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -26996,7 +27011,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -28655,7 +28670,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -30258,7 +30273,7 @@
       </c>
       <c r="B1" s="135"/>
       <c r="D1" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E1" t="str">
         <f>D1</f>
@@ -30314,7 +30329,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -31917,7 +31932,7 @@
       </c>
       <c r="B1" s="135"/>
       <c r="D1" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="E1" t="str">
         <f>D1</f>
@@ -31973,7 +31988,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -33576,7 +33591,7 @@
       </c>
       <c r="B1" s="135"/>
       <c r="D1" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="E1" t="str">
         <f>D1</f>
@@ -33632,7 +33647,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="109" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -40319,10 +40334,10 @@
     </row>
     <row r="18" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C18" s="89" t="s">
         <v>182</v>
@@ -40340,7 +40355,7 @@
     </row>
     <row r="19" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B19" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40366,7 +40381,7 @@
     </row>
     <row r="20" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B20" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40392,7 +40407,7 @@
     </row>
     <row r="21" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B21" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40418,7 +40433,7 @@
     </row>
     <row r="22" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B22" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40444,7 +40459,7 @@
     </row>
     <row r="23" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B23" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40470,7 +40485,7 @@
     </row>
     <row r="24" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B24" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40496,7 +40511,7 @@
     </row>
     <row r="25" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B25" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40522,7 +40537,7 @@
     </row>
     <row r="26" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B26" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40548,7 +40563,7 @@
     </row>
     <row r="27" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B27" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40574,7 +40589,7 @@
     </row>
     <row r="28" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B28" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40600,7 +40615,7 @@
     </row>
     <row r="29" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B29" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40628,7 +40643,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B30" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40656,7 +40671,7 @@
     </row>
     <row r="31" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B31" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40684,7 +40699,7 @@
     </row>
     <row r="32" spans="1:13" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B32" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40712,10 +40727,10 @@
     </row>
     <row r="33" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C33" s="89" t="s">
         <v>182</v>
@@ -40733,7 +40748,7 @@
     </row>
     <row r="34" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B34" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40759,7 +40774,7 @@
     </row>
     <row r="35" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B35" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40785,7 +40800,7 @@
     </row>
     <row r="36" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B36" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>
@@ -40813,7 +40828,7 @@
     </row>
     <row r="37" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B37" t="str">
         <f>tblIndexPowerpoint7[[#This Row],[Content 1]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 2]] &amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Content 3]]&amp; " " &amp;tblIndexPowerpoint7[[#This Row],[Layout]]</f>

--- a/Solution/PptGeneratorGUI/SourceFiles/DataSource.xlsx
+++ b/Solution/PptGeneratorGUI/SourceFiles/DataSource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\PptGeneratorGUI\SourceFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784311DD-D136-49BB-A739-29F4C314DF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FEE5F3-1D85-47B3-925C-207815087D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="774" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15345" tabRatio="774" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="3" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="278">
   <si>
     <t>da considerare?_</t>
   </si>
@@ -889,9 +889,6 @@
     <t>Match caso 3</t>
   </si>
   <si>
-    <t>Pippo</t>
-  </si>
-  <si>
     <t>Match caso 4</t>
   </si>
   <si>
@@ -916,7 +913,22 @@
     <t>*cccc</t>
   </si>
   <si>
-    <t>Pluto</t>
+    <t>Caso 4</t>
+  </si>
+  <si>
+    <t>Caso D</t>
+  </si>
+  <si>
+    <t>Pluto A, PlutoA, Pluto B, pluto C</t>
+  </si>
+  <si>
+    <t>Caso Pluto</t>
+  </si>
+  <si>
+    <t>Pippo 1, Pippo 2, Pippo 3</t>
+  </si>
+  <si>
+    <t>Caso Pippo</t>
   </si>
 </sst>
 </file>
@@ -7192,7 +7204,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7240,15 +7252,19 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="80" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="81" t="s">
         <v>264</v>
       </c>
-      <c r="B6" s="81" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="80"/>
@@ -7325,7 +7341,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7349,26 +7365,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="80" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7376,12 +7392,16 @@
         <v>273</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="80" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="80"/>
